--- a/ACSA3/Data/Book1.xlsx
+++ b/ACSA3/Data/Book1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,12 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Manager</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>mno</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -353,22 +368,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
